--- a/NetMenus/src/main/java/qa/TestData/AddRecord.xlsx
+++ b/NetMenus/src/main/java/qa/TestData/AddRecord.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14625" windowHeight="2400" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Coupons" sheetId="1" r:id="rId1"/>
     <sheet name="Restaurants" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Users" sheetId="3" r:id="rId3"/>
+    <sheet name="Owners" sheetId="4" r:id="rId4"/>
+    <sheet name="RestaurantPlan" sheetId="5" r:id="rId5"/>
+    <sheet name="Drivers" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>description</t>
   </si>
@@ -101,6 +103,81 @@
   </si>
   <si>
     <t>Chinese</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Tribbiani</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>subscriptionplan</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Geller</t>
+  </si>
+  <si>
+    <t>Basic Plan</t>
+  </si>
+  <si>
+    <t>planname</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Premium Gold</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Pheobe</t>
+  </si>
+  <si>
+    <t>smellycat</t>
+  </si>
+  <si>
+    <t>pheobe@gmail.com</t>
+  </si>
+  <si>
+    <t>Subway</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>r2.jpg</t>
   </si>
 </sst>
 </file>
@@ -529,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -640,12 +717,208 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NetMenus/src/main/java/qa/TestData/AddRecord.xlsx
+++ b/NetMenus/src/main/java/qa/TestData/AddRecord.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14625" windowHeight="3165" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Coupons" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="RestaurantPlan" sheetId="5" r:id="rId5"/>
     <sheet name="Drivers" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -177,7 +178,7 @@
     <t>image</t>
   </si>
   <si>
-    <t>r2.jpg</t>
+    <t>C:\Users\minds9\Downloads\r2.jpg</t>
   </si>
 </sst>
 </file>
@@ -879,6 +880,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
